--- a/pred_ohlcv/54_21/2020-01-20 BTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 BTC ohlcv.xlsx
@@ -678,7 +678,7 @@
         <v>-107.89231377</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-102.50070486</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-104.98490486</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-104.08042181</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-102.36662181</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-95.41072549999996</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-81.90988414999995</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-76.88764570999996</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-82.26377444999996</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-81.35293513999996</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-83.34813129999996</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-81.82165315999997</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-78.49515315999997</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-77.83185315999997</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-77.14376676999997</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-82.85838037999997</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-103.75517643</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-114.26117643</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-117.30267643</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-122.03937643</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-119.31610114</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-125.74350114</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-123.85040114</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-125.54350114</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-129.04270114</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-125.79165337</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-114.91265337</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-111.52325337</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-116.29975337</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-117.86315337</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-120.74916786</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-117.45436786</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-117.45436786</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-104.42226737</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-101.06046737</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-108.55836737</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-108.18816737</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-100.92936737</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-96.02116736999997</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-97.39556736999997</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-96.46127079999997</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-97.02257966999997</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-97.62977966999998</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-104.04267967</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-83.47317966999996</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-84.56657966999997</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-81.47107966999997</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-89.52367966999996</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-90.13357966999996</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-86.17407966999995</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-88.58927966999995</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-74.46787697999996</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-75.24586798999995</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-75.24586798999995</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-72.03246798999996</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-73.33476798999996</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-65.25246798999996</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-65.25246798999996</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-66.41626798999995</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-66.37246798999995</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-64.88056798999995</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-64.88056798999995</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-64.52295630999994</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-61.20146798999994</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-61.75646798999994</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-62.05936798999994</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-62.27256798999994</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-59.99418979999994</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-61.02617528999994</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-62.30447528999994</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-61.82337528999994</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-64.57897528999995</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-60.01050552999995</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-59.17900552999995</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-58.94780552999995</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-59.02980552999995</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-59.74970552999995</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-58.12910552999995</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-58.49100552999995</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-58.79573403999994</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-58.79573403999994</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-58.79573403999994</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-58.79573403999994</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-58.56473403999994</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-55.82193719999994</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-55.82193719999994</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-60.33173719999994</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-60.60053719999994</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-58.82483719999994</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-58.82483719999994</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-58.82533719999994</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-58.71693719999994</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-58.71693719999994</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-58.72743719999994</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-59.04383719999994</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-55.30053719999994</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-54.96103719999994</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-55.74303719999995</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-57.52923719999995</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-58.04763719999995</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-55.82143719999995</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-55.82143719999995</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-55.04123719999995</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-53.89423719999995</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-58.02073719999995</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-59.42953719999995</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-58.42093719999995</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-49.61103719999995</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-49.61103719999995</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-49.22823719999995</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-49.28423719999994</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-49.66953719999994</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-51.56053719999994</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-51.56053719999994</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-51.59923719999994</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-51.59923719999994</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-51.59923719999994</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-51.59923719999994</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-49.25213719999994</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-48.66033719999994</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-47.34673719999994</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-48.37503719999994</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-47.90443719999995</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-47.57923719999994</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-47.57923719999994</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-47.76983719999995</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-43.73323719999995</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-44.09243719999995</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-44.15123719999995</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-44.24893719999995</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-44.47383719999995</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-44.39563719999995</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-44.60963719999994</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-44.24104017999994</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-44.59544017999994</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-45.47774017999994</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-45.49524017999994</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-45.49524017999994</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-45.49524017999994</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-45.49524017999994</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-43.53954017999994</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-43.60564017999994</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-43.60564017999994</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-43.33764017999994</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-43.33764017999994</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-43.61924017999993</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-43.67424017999993</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-43.33874017999993</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-43.10954017999993</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-43.10954017999993</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-43.16274017999993</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-41.27883719999993</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-40.21913719999993</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-41.60493719999993</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-41.85603719999993</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-41.85603719999993</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-41.85603719999993</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-41.85603719999993</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-37.69503719999993</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-37.99153719999993</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-37.99153719999993</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-37.86273719999993</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-38.23833719999993</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-38.23483719999993</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-38.23483719999993</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-38.45055085999993</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-38.39145085999993</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-38.47125085999993</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-38.47125085999993</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-38.28675085999993</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-38.70845085999993</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-38.70845085999993</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-35.63455085999993</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-39.71145085999993</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-39.88605085999993</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-39.88605085999993</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-40.24675085999993</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-40.29205085999993</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-39.83095085999992</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-39.88585085999993</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-37.60635085999993</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-37.60635085999993</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-37.51025085999993</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-37.44705085999993</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-38.14985085999993</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-36.49425085999993</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-36.51215085999993</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-36.47015085999993</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-36.51865085999992</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-36.48885085999992</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-36.99715085999992</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-36.98405085999992</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-36.99565085999992</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-39.03195085999992</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-39.03195085999992</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-39.03195085999992</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-38.62585085999991</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-38.62585085999991</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-38.62585085999991</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-38.62585085999991</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-38.62585085999991</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-38.62585085999991</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-38.68285085999992</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-38.05684748999992</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-37.69664748999992</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-37.71084748999992</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-37.69224747999992</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-37.78674401999992</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-37.78674401999992</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-38.44094401999993</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-38.44094401999993</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-38.32834401999992</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-38.50564401999993</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-37.93634401999993</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-37.93634401999993</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-37.82544401999993</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-37.82544401999993</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-39.00494401999993</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-39.03814401999993</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-38.82394401999993</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-38.82394401999993</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-39.08134401999992</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-39.19344401999992</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-39.14454401999992</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-39.42644401999992</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-38.81754401999992</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-39.18430192999992</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-35.54870192999992</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-35.54870192999992</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-35.54870192999992</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-35.94980192999992</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-35.63760192999992</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-35.63760192999992</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-38.74720192999992</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-38.74720192999992</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-37.71064246999993</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-37.99944246999993</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-38.58274246999993</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-38.58274246999993</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-38.58274246999993</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-41.63953915999993</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-41.63953915999993</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-43.80153915999993</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-43.80153915999993</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-43.80153915999993</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-43.88003915999992</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-44.83413915999992</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-45.51943915999992</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-44.22463915999992</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-44.44233915999992</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-44.29493915999992</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-44.29493915999992</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-44.29493915999992</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-44.93283915999992</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-42.61743915999993</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-42.61743915999993</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-41.96573915999993</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-42.09373915999993</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-42.11533915999993</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-42.09830827999993</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-42.09830827999993</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-42.09830827999993</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-42.09830827999993</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-42.46480827999993</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-42.46480827999993</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-42.43940827999993</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-42.66810827999993</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-42.64290827999994</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-42.56070827999994</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-42.48340827999994</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-42.48340827999994</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-42.48340827999994</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-42.48340827999994</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-42.48340827999994</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-42.48530827999993</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-41.42833119999993</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-41.15093119999993</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-41.15093119999993</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-41.17353119999993</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-41.14803119999993</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-41.14803119999993</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-42.08513119999993</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-41.28763119999993</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-42.34583119999993</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-41.96913119999993</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-42.77803119999993</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-42.58433119999993</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-42.23663119999993</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-41.88006834999992</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-41.90942339999992</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-42.84952339999992</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-43.18682339999992</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-42.90692339999993</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-42.92952339999992</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-42.20088624999993</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-42.15298624999993</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-42.04958624999993</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-42.04958624999993</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-42.04958624999993</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-42.32028624999992</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-39.41014571999992</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-38.93744571999992</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-37.89694567999992</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-39.80954567999992</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-39.80954567999992</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-40.70964567999992</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-40.63244567999993</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-40.63244567999993</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-40.52974567999993</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-39.95354564999992</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-42.61574564999992</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-42.40334564999992</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-42.25184564999992</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-43.88584564999992</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-43.41284564999992</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-44.04284564999993</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-43.89564564999993</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-44.07934564999993</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-44.07934564999993</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-41.25234564999993</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-42.02454564999993</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-42.02454564999993</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-41.95354564999993</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-41.19144564999993</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-41.13994564999994</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-41.16294564999994</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-41.14594564999994</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-41.14594564999994</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-41.20674564999994</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-40.35024564999994</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-40.03624564999994</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-40.03624564999994</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-39.17034561999994</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-39.46444561999994</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-37.46394564999994</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-36.77204564999995</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-36.77204564999995</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-36.77204564999995</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-36.77204564999995</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-38.18984564999995</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-36.15454564999995</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-36.51954567999994</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-37.13354567999994</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-36.67764567999994</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-36.68364567999994</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-36.42464567999994</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-36.42464567999994</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-36.42464567999994</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-36.19334567999994</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-38.48104567999994</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-37.21944567999994</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-37.21944567999994</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-37.35424567999994</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-36.33674567999994</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-36.74524567999994</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-39.34064567999994</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-39.34064567999994</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-37.62093594999994</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-36.32013594999994</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-36.32013594999994</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-34.72283594999994</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-34.97033594999994</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-35.49043594999994</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-35.41723594999994</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-35.52143594999994</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-35.57183594999994</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-35.77623887999994</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-35.63003887999994</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-38.46833887999994</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-37.64813798999994</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-37.64813798999994</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-41.49921938999994</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-41.41691938999994</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-41.50531938999994</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-40.70111938999994</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-39.19301938999994</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-39.77451938999994</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-39.77451938999994</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-39.77451938999994</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-39.77451938999994</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-40.10641938999994</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-40.10641938999994</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-39.21978620999994</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-39.21978620999994</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-40.46258620999994</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-40.77268620999994</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-42.36418620999994</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-43.27548621999994</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-43.27548621999994</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-43.27548621999994</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-46.50618621999994</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-43.92908621999994</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-43.92908621999994</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-48.78938621999994</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-49.03098621999994</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-49.91318621999994</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-48.71348719999994</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-47.57598621999994</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-51.47675269999994</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-50.47705269999994</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-44.06351917999994</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-43.65521917999995</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-43.30589161999995</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>-43.51509161999995</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-40.25428042999995</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-41.14088042999995</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>-41.14088042999995</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>-41.14088042999995</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>-41.06408042999995</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-41.06408042999995</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-40.63148042999995</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-39.41678042999995</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-38.61348042999995</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-38.61348042999995</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-36.62498042999995</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-36.62498042999995</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-36.62498042999995</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-43.95958042999995</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-43.95958042999995</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-46.90737562999995</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-47.64384533999996</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-47.64384533999996</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-48.02084533999996</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-47.33177367999996</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-46.46467622999995</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-47.42757142999995</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-40.03207515999995</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-43.84926135999995</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-43.84926135999995</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-46.69245823999995</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-45.62815823999995</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-49.03275823999995</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-50.88095823999995</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-52.94199306999995</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-54.20485823999994</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-48.52112340999994</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-49.69262341999995</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-52.25572341999995</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-53.43782341999994</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-61.74781401999994</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-60.91590844999995</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-61.63514391999995</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-63.58685157999994</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-64.36305157999995</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-64.36305157999995</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-64.36305157999995</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-60.03145157999995</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-61.22695157999995</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-59.50345157999995</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-58.37205157999995</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-58.38845157999994</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-58.38845157999994</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-58.16505157999995</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-63.10275157999995</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>-65.41165157999994</v>
       </c>
       <c r="H491">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>-71.82415157999993</v>
       </c>
       <c r="H492">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>-71.82415157999993</v>
       </c>
       <c r="H493">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>-75.50525157999994</v>
       </c>
       <c r="H494">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-76.28235157999994</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-69.09705157999994</v>
       </c>
       <c r="H496">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-73.84945157999994</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-69.83905157999993</v>
       </c>
       <c r="H498">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>-64.16236947999994</v>
       </c>
       <c r="H499">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>-63.69706947999994</v>
       </c>
       <c r="H500">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>-62.72766947999994</v>
       </c>
       <c r="H501">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>-64.35566531999994</v>
       </c>
       <c r="H502">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>-64.00527076999994</v>
       </c>
       <c r="H503">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>-64.76047076999994</v>
       </c>
       <c r="H504">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>-64.58207076999994</v>
       </c>
       <c r="H505">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>-61.14347076999994</v>
       </c>
       <c r="H506">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>-60.73477076999994</v>
       </c>
       <c r="H507">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>-57.71697076999994</v>
       </c>
       <c r="H508">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>-57.71697076999994</v>
       </c>
       <c r="H509">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>-57.71697076999994</v>
       </c>
       <c r="H510">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>-57.71697076999994</v>
       </c>
       <c r="H511">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>-53.48569032999994</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>-37.67379032999994</v>
       </c>
       <c r="H513">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>-30.03749032999994</v>
       </c>
       <c r="H514">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>-2.949067819999939</v>
       </c>
       <c r="H515">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>-12.03434346999994</v>
       </c>
       <c r="H516">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>-5.408321499999939</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>-7.004721499999939</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>-11.83232149999994</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>-14.57342149999994</v>
       </c>
       <c r="H520">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>-16.51732149999994</v>
       </c>
       <c r="H521">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>-14.21541066999994</v>
       </c>
       <c r="H522">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>-15.00033036999994</v>
       </c>
       <c r="H523">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>-16.33617962999994</v>
       </c>
       <c r="H524">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>-13.93627962999994</v>
       </c>
       <c r="H525">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>-13.02454858999994</v>
       </c>
       <c r="H526">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>-12.30514858999994</v>
       </c>
       <c r="H527">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>-9.236248589999935</v>
       </c>
       <c r="H528">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>-11.89444858999994</v>
       </c>
       <c r="H529">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>-17.18451221999993</v>
       </c>
       <c r="H530">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>-20.20591221999993</v>
       </c>
       <c r="H531">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>-21.35951221999994</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>-20.41931221999993</v>
       </c>
       <c r="H533">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>-22.85731221999993</v>
       </c>
       <c r="H534">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>-22.39591221999993</v>
       </c>
       <c r="H535">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>-18.28891221999993</v>
       </c>
       <c r="H536">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>-24.42981222999993</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>-20.57141222999993</v>
       </c>
       <c r="H538">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>8.602824130000066</v>
       </c>
       <c r="H539">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>95.15643733000007</v>
       </c>
       <c r="H540">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>115.2581373300001</v>
       </c>
       <c r="H541">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>89.57366605000007</v>
       </c>
       <c r="H542">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>77.27018687000007</v>
       </c>
       <c r="H543">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>90.96578687000007</v>
       </c>
       <c r="H544">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>99.47698686000007</v>
       </c>
       <c r="H545">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>138.5387306000001</v>
       </c>
       <c r="H546">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>153.1266485200001</v>
       </c>
       <c r="H547">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>188.1465306100001</v>
       </c>
       <c r="H548">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>188.1465306100001</v>
       </c>
       <c r="H549">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>218.2809954100001</v>
       </c>
       <c r="H550">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>197.9522397000001</v>
       </c>
       <c r="H551">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>207.6430397000001</v>
       </c>
       <c r="H552">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>195.0444397000001</v>
       </c>
       <c r="H553">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>350.41127468</v>
       </c>
       <c r="H570">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>369.70867624</v>
       </c>
       <c r="H571">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>386.9356382400001</v>
       </c>
       <c r="H572">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>371.9596382400001</v>
       </c>
       <c r="H573">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>358.0254558400001</v>
       </c>
       <c r="H574">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>374.4372930300001</v>
       </c>
       <c r="H575">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>386.6690675100001</v>
       </c>
       <c r="H576">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>408.7532519500001</v>
       </c>
       <c r="H577">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>417.8642871700001</v>
       </c>
       <c r="H578">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>428.4196953700001</v>
       </c>
       <c r="H579">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>399.7229036800001</v>
       </c>
       <c r="H580">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>403.6121776200001</v>
       </c>
       <c r="H581">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>399.0465776200001</v>
       </c>
       <c r="H582">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>396.7730776200001</v>
       </c>
       <c r="H583">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>407.7626898800001</v>
       </c>
       <c r="H584">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>396.5021898800001</v>
       </c>
       <c r="H585">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>415.3298353300001</v>
       </c>
       <c r="H586">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>407.2403198500001</v>
       </c>
       <c r="H587">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>412.3277474800001</v>
       </c>
       <c r="H588">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>405.3295475200001</v>
       </c>
       <c r="H589">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>393.1350208300001</v>
       </c>
       <c r="H590">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>373.6011994300001</v>
       </c>
       <c r="H591">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>358.0832816100001</v>
       </c>
       <c r="H592">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>343.9364816100001</v>
       </c>
       <c r="H593">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>331.9053816100001</v>
       </c>
       <c r="H594">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>348.1145816100001</v>
       </c>
       <c r="H595">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>339.4936816100001</v>
       </c>
       <c r="H596">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>349.2704816100001</v>
       </c>
       <c r="H597">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>353.1612825800001</v>
       </c>
       <c r="H598">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>362.1581825800001</v>
       </c>
       <c r="H599">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>370.5569611800001</v>
       </c>
       <c r="H600">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>365.2886611800001</v>
       </c>
       <c r="H601">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>361.1983612200001</v>
       </c>
       <c r="H602">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>364.2896612200001</v>
       </c>
       <c r="H603">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>363.2408612200001</v>
       </c>
       <c r="H604">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>367.9933612200001</v>
       </c>
       <c r="H605">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>371.15606122</v>
       </c>
       <c r="H606">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>365.40266122</v>
       </c>
       <c r="H607">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>370.9010550100001</v>
       </c>
       <c r="H608">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>380.21155501</v>
       </c>
       <c r="H609">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>383.95174093</v>
       </c>
       <c r="H610">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>394.33466089</v>
       </c>
       <c r="H611">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>399.85827666</v>
       </c>
       <c r="H612">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>411.60751086</v>
       </c>
       <c r="H613">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>399.78433991</v>
       </c>
       <c r="H614">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>403.88805247</v>
       </c>
       <c r="H615">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>408.88908024</v>
       </c>
       <c r="H616">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>425.94181245</v>
       </c>
       <c r="H617">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>413.90328285</v>
       </c>
       <c r="H618">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>420.09514693</v>
       </c>
       <c r="H619">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>416.90609744</v>
       </c>
       <c r="H620">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>408.28729746</v>
       </c>
       <c r="H621">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>412.96589742</v>
       </c>
       <c r="H622">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>404.05339738</v>
       </c>
       <c r="H623">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>398.98631835</v>
       </c>
       <c r="H624">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>402.35291835</v>
       </c>
       <c r="H625">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>396.36911835</v>
       </c>
       <c r="H626">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>391.97756</v>
       </c>
       <c r="H627">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>391.97756</v>
       </c>
       <c r="H628">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>388.03686</v>
       </c>
       <c r="H629">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>385.06496</v>
       </c>
       <c r="H630">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>381.88580118</v>
       </c>
       <c r="H631">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>370.60074478</v>
       </c>
       <c r="H632">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>365.09074478</v>
       </c>
       <c r="H633">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>353.39774478</v>
       </c>
       <c r="H634">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>353.39774478</v>
       </c>
       <c r="H635">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>348.5813447800001</v>
       </c>
       <c r="H636">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>347.23204478</v>
       </c>
       <c r="H637">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>350.13914478</v>
       </c>
       <c r="H638">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>350.13914478</v>
       </c>
       <c r="H639">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>357.43910075</v>
       </c>
       <c r="H640">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>360.72889343</v>
       </c>
       <c r="H641">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>355.15253777</v>
       </c>
       <c r="H642">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>358.86833777</v>
       </c>
       <c r="H643">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>368.58019538</v>
       </c>
       <c r="H644">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>372.97529847</v>
       </c>
       <c r="H645">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>368.9849984700001</v>
       </c>
       <c r="H646">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>366.7641984700001</v>
       </c>
       <c r="H647">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>374.0743984700001</v>
       </c>
       <c r="H648">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>372.1666984400001</v>
       </c>
       <c r="H649">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>379.2216984400001</v>
       </c>
       <c r="H650">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>380.4110020700001</v>
       </c>
       <c r="H651">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>376.9487021100001</v>
       </c>
       <c r="H652">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>378.56951724</v>
       </c>
       <c r="H653">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>377.87423246</v>
       </c>
       <c r="H654">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>372.04223246</v>
       </c>
       <c r="H655">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>372.04223246</v>
       </c>
       <c r="H656">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>375.25652718</v>
       </c>
       <c r="H657">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>371.57562718</v>
       </c>
       <c r="H658">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>368.58042718</v>
       </c>
       <c r="H659">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>368.58042718</v>
       </c>
       <c r="H660">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>373.11052718</v>
       </c>
       <c r="H661">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>369.6854997</v>
       </c>
       <c r="H662">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>370.46429155</v>
       </c>
       <c r="H663">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>371.5889915500001</v>
       </c>
       <c r="H664">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>375.41114544</v>
       </c>
       <c r="H665">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>375.41114544</v>
       </c>
       <c r="H666">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>377.5496775</v>
       </c>
       <c r="H667">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>377.5496775</v>
       </c>
       <c r="H668">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>379.96079379</v>
       </c>
       <c r="H669">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>377.46599379</v>
       </c>
       <c r="H670">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>374.1572977500001</v>
       </c>
       <c r="H671">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>371.8474977500001</v>
       </c>
       <c r="H672">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>371.8474977500001</v>
       </c>
       <c r="H673">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>373.0205849500001</v>
       </c>
       <c r="H674">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>373.0205849500001</v>
       </c>
       <c r="H675">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>371.9022007900001</v>
       </c>
       <c r="H676">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>369.4332007900001</v>
       </c>
       <c r="H677">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>369.4332007900001</v>
       </c>
       <c r="H678">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>361.66900079</v>
       </c>
       <c r="H679">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>364.0455029400001</v>
       </c>
       <c r="H680">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>362.1709029400001</v>
       </c>
       <c r="H681">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>354.7692029400001</v>
       </c>
       <c r="H682">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>356.4596029400001</v>
       </c>
       <c r="H683">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>356.4596029400001</v>
       </c>
       <c r="H684">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>356.4596029400001</v>
       </c>
       <c r="H685">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>356.4596029400001</v>
       </c>
       <c r="H686">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>363.7787060800001</v>
       </c>
       <c r="H687">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>355.8289608300001</v>
       </c>
       <c r="H688">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>357.3256149000001</v>
       </c>
       <c r="H689">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>357.6617149</v>
       </c>
       <c r="H690">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>351.0346149000001</v>
       </c>
       <c r="H691">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>333.6542149000001</v>
       </c>
       <c r="H692">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>326.8188149000001</v>
       </c>
       <c r="H693">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>327.52738394</v>
       </c>
       <c r="H694">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>328.7501938500001</v>
       </c>
       <c r="H695">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>328.3715118900001</v>
       </c>
       <c r="H696">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>322.5358118900001</v>
       </c>
       <c r="H697">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>323.8913118900001</v>
       </c>
       <c r="H698">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>325.5299118900001</v>
       </c>
       <c r="H699">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>325.5299118900001</v>
       </c>
       <c r="H700">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>330.1801118900001</v>
       </c>
       <c r="H701">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>330.0796118900001</v>
       </c>
       <c r="H702">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>330.5912118900001</v>
       </c>
       <c r="H703">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>329.84381189</v>
       </c>
       <c r="H704">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>328.4823118900001</v>
       </c>
       <c r="H705">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>328.88051189</v>
       </c>
       <c r="H706">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>327.76821189</v>
       </c>
       <c r="H707">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>312.46551189</v>
       </c>
       <c r="H708">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>305.04781189</v>
       </c>
       <c r="H709">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>301.92071189</v>
       </c>
       <c r="H710">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>298.87211189</v>
       </c>
       <c r="H711">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>292.95332185</v>
       </c>
       <c r="H712">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>288.97182185</v>
       </c>
       <c r="H713">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>291.0413466000001</v>
       </c>
       <c r="H715">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>307.8847078200001</v>
       </c>
       <c r="H722">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>306.4823078200001</v>
       </c>
       <c r="H723">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>305.8941078200001</v>
       </c>
       <c r="H724">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>298.30503909</v>
       </c>
       <c r="H744">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>298.32183909</v>
       </c>
       <c r="H746">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>298.74633909</v>
       </c>
       <c r="H747">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>298.74633909</v>
       </c>
       <c r="H748">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>298.74633909</v>
       </c>
       <c r="H749">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>298.9630628200001</v>
       </c>
       <c r="H750">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>298.8194628200001</v>
       </c>
       <c r="H751">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>308.9863628200001</v>
       </c>
       <c r="H752">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>309.7301628200001</v>
       </c>
       <c r="H753">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>307.7041628200001</v>
       </c>
       <c r="H754">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>311.4099628200001</v>
       </c>
       <c r="H755">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>311.4099628200001</v>
       </c>
       <c r="H756">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>316.7336628200001</v>
       </c>
       <c r="H757">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>309.4465628200001</v>
       </c>
       <c r="H758">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>309.4465628200001</v>
       </c>
       <c r="H759">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>309.6727628200001</v>
       </c>
       <c r="H760">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>307.54466282</v>
       </c>
       <c r="H761">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>307.54466282</v>
       </c>
       <c r="H762">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>307.54466282</v>
       </c>
       <c r="H763">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>304.6442628200001</v>
       </c>
       <c r="H764">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>300.97266282</v>
       </c>
       <c r="H765">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>303.8575628200001</v>
       </c>
       <c r="H766">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>302.2787628200001</v>
       </c>
       <c r="H767">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>294.1030130500001</v>
       </c>
       <c r="H768">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>292.3801130500001</v>
       </c>
       <c r="H769">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>288.6660130500001</v>
       </c>
       <c r="H770">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>285.7289130500001</v>
       </c>
       <c r="H771">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>287.9039130500001</v>
       </c>
       <c r="H772">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>289.6267130500001</v>
       </c>
       <c r="H773">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>286.7918130500001</v>
       </c>
       <c r="H774">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>293.9099130500002</v>
       </c>
       <c r="H775">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>290.0860242900002</v>
       </c>
       <c r="H776">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>291.9498242900002</v>
       </c>
       <c r="H777">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>291.9498242900002</v>
       </c>
       <c r="H778">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>290.1950242900002</v>
       </c>
       <c r="H779">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>287.8609242900002</v>
       </c>
       <c r="H780">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>285.1348242900003</v>
       </c>
       <c r="H781">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>289.6827738300003</v>
       </c>
       <c r="H782">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>283.6345678300003</v>
       </c>
       <c r="H783">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>292.3355547600003</v>
       </c>
       <c r="H784">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>288.6988057500002</v>
       </c>
       <c r="H785">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>286.2357656900002</v>
       </c>
       <c r="H786">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>281.4719656900002</v>
       </c>
       <c r="H787">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>276.1032656900002</v>
       </c>
       <c r="H788">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -21556,7 +21556,7 @@
         <v>278.9858955200001</v>
       </c>
       <c r="H814">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="815" spans="1:8">
@@ -21582,7 +21582,7 @@
         <v>278.9858955200001</v>
       </c>
       <c r="H815">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="816" spans="1:8">
@@ -22076,7 +22076,7 @@
         <v>293.11191942</v>
       </c>
       <c r="H834">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="835" spans="1:8">
@@ -22102,7 +22102,7 @@
         <v>295.32521963</v>
       </c>
       <c r="H835">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="836" spans="1:8">
@@ -22128,7 +22128,7 @@
         <v>294.6470613600001</v>
       </c>
       <c r="H836">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="837" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>292.4022613600001</v>
       </c>
       <c r="H837">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="838" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>292.4415613600001</v>
       </c>
       <c r="H838">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>292.0506388000001</v>
       </c>
       <c r="H839">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>291.3361388000001</v>
       </c>
       <c r="H840">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>291.9712388000002</v>
       </c>
       <c r="H841">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>291.6069388000001</v>
       </c>
       <c r="H842">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>290.1118388000002</v>
       </c>
       <c r="H843">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>288.9175490400002</v>
       </c>
       <c r="H844">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>285.3627824800001</v>
       </c>
       <c r="H845">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>285.6494824800001</v>
       </c>
       <c r="H846">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>285.6494824800001</v>
       </c>
       <c r="H847">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>285.1235490400001</v>
       </c>
       <c r="H849">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>283.7878270700001</v>
       </c>
       <c r="H851">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>284.4204165000001</v>
       </c>
       <c r="H852">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>285.2360386000001</v>
       </c>
       <c r="H853">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>282.9199386000001</v>
       </c>
       <c r="H854">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>281.0329607000001</v>
       </c>
       <c r="H855">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>281.9427744300001</v>
       </c>
       <c r="H856">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>281.9427744300001</v>
       </c>
       <c r="H857">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>282.7250744300001</v>
       </c>
       <c r="H858">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>282.2890492000001</v>
       </c>
       <c r="H859">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>283.3074492000001</v>
       </c>
       <c r="H860">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>274.5011492000001</v>
       </c>
       <c r="H861">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>274.6794492100001</v>
       </c>
       <c r="H862">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -22856,7 +22856,7 @@
         <v>274.6794492100001</v>
       </c>
       <c r="H864">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="865" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>275.8459737800001</v>
       </c>
       <c r="H865">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>277.55917378</v>
       </c>
       <c r="H866">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -22934,7 +22934,7 @@
         <v>278.30237378</v>
       </c>
       <c r="H867">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="868" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>287.73747378</v>
       </c>
       <c r="H868">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="869" spans="1:8">
@@ -22986,7 +22986,7 @@
         <v>288.95527378</v>
       </c>
       <c r="H869">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="870" spans="1:8">
@@ -23012,7 +23012,7 @@
         <v>288.8242737800001</v>
       </c>
       <c r="H870">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="871" spans="1:8">
@@ -23038,7 +23038,7 @@
         <v>287.95767469</v>
       </c>
       <c r="H871">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="872" spans="1:8">
@@ -23064,7 +23064,7 @@
         <v>292.544845</v>
       </c>
       <c r="H872">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -23090,7 +23090,7 @@
         <v>292.263845</v>
       </c>
       <c r="H873">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="874" spans="1:8">
@@ -23116,7 +23116,7 @@
         <v>296.432445</v>
       </c>
       <c r="H874">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="875" spans="1:8">
@@ -23142,7 +23142,7 @@
         <v>296.80314163</v>
       </c>
       <c r="H875">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="876" spans="1:8">
@@ -23168,7 +23168,7 @@
         <v>296.49984971</v>
       </c>
       <c r="H876">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="877" spans="1:8">
@@ -23194,7 +23194,7 @@
         <v>296.49984971</v>
       </c>
       <c r="H877">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="878" spans="1:8">
@@ -23220,7 +23220,7 @@
         <v>297.20914971</v>
       </c>
       <c r="H878">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="879" spans="1:8">
@@ -23246,7 +23246,7 @@
         <v>293.66064971</v>
       </c>
       <c r="H879">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="880" spans="1:8">
@@ -23272,7 +23272,7 @@
         <v>285.90984971</v>
       </c>
       <c r="H880">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="881" spans="1:8">
@@ -23298,7 +23298,7 @@
         <v>281.4754199</v>
       </c>
       <c r="H881">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="882" spans="1:8">
@@ -23324,7 +23324,7 @@
         <v>281.4754199</v>
       </c>
       <c r="H882">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="883" spans="1:8">
@@ -32450,7 +32450,7 @@
         <v>-501.4969969700002</v>
       </c>
       <c r="H1233">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1234" spans="1:8">
@@ -32476,7 +32476,7 @@
         <v>-508.4617727200002</v>
       </c>
       <c r="H1234">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1235" spans="1:8">
@@ -32502,7 +32502,7 @@
         <v>-520.0050727200003</v>
       </c>
       <c r="H1235">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1236" spans="1:8">
@@ -32528,7 +32528,7 @@
         <v>-513.6313727200003</v>
       </c>
       <c r="H1236">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1237" spans="1:8">
@@ -32580,7 +32580,7 @@
         <v>-506.2399216000003</v>
       </c>
       <c r="H1238">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1239" spans="1:8">
@@ -32606,7 +32606,7 @@
         <v>-499.8219216000003</v>
       </c>
       <c r="H1239">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1240" spans="1:8">
@@ -32632,7 +32632,7 @@
         <v>-492.7320631600003</v>
       </c>
       <c r="H1240">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1241" spans="1:8">
@@ -32658,7 +32658,7 @@
         <v>-487.0821064300003</v>
       </c>
       <c r="H1241">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1242" spans="1:8">
@@ -32684,7 +32684,7 @@
         <v>-482.8152224900003</v>
       </c>
       <c r="H1242">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1243" spans="1:8">
@@ -32710,7 +32710,7 @@
         <v>-476.6701902800003</v>
       </c>
       <c r="H1243">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1244" spans="1:8">
@@ -32736,7 +32736,7 @@
         <v>-464.2869608500002</v>
       </c>
       <c r="H1244">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1245" spans="1:8">
@@ -33594,7 +33594,7 @@
         <v>-500.1077087800004</v>
       </c>
       <c r="H1277">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1278" spans="1:8">
@@ -33620,7 +33620,7 @@
         <v>-493.4594087800004</v>
       </c>
       <c r="H1278">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1279" spans="1:8">
@@ -33646,7 +33646,7 @@
         <v>-493.4594087800004</v>
       </c>
       <c r="H1279">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1280" spans="1:8">
@@ -34244,7 +34244,7 @@
         <v>-491.9610469900003</v>
       </c>
       <c r="H1302">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1303" spans="1:8">
@@ -34270,7 +34270,7 @@
         <v>-490.8537877600003</v>
       </c>
       <c r="H1303">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1304" spans="1:8">
@@ -34296,7 +34296,7 @@
         <v>-488.1754878000003</v>
       </c>
       <c r="H1304">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1305" spans="1:8">
@@ -34322,7 +34322,7 @@
         <v>-486.0131296100002</v>
       </c>
       <c r="H1305">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1306" spans="1:8">
@@ -34348,7 +34348,7 @@
         <v>-494.1404986400003</v>
       </c>
       <c r="H1306">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1307" spans="1:8">
@@ -34374,7 +34374,7 @@
         <v>-493.3401986400003</v>
       </c>
       <c r="H1307">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1308" spans="1:8">
@@ -34400,7 +34400,7 @@
         <v>-493.3401986400003</v>
       </c>
       <c r="H1308">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1309" spans="1:8">
@@ -34426,7 +34426,7 @@
         <v>-485.1717592900003</v>
       </c>
       <c r="H1309">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1310" spans="1:8">
@@ -34452,7 +34452,7 @@
         <v>-485.8570651400003</v>
       </c>
       <c r="H1310">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1311" spans="1:8">
@@ -34478,7 +34478,7 @@
         <v>-486.9207651400003</v>
       </c>
       <c r="H1311">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1312" spans="1:8">
@@ -34504,7 +34504,7 @@
         <v>-486.9207651400003</v>
       </c>
       <c r="H1312">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1313" spans="1:8">
@@ -34530,7 +34530,7 @@
         <v>-486.9207651400003</v>
       </c>
       <c r="H1313">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1314" spans="1:8">
@@ -34556,7 +34556,7 @@
         <v>-485.1809985700003</v>
       </c>
       <c r="H1314">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1315" spans="1:8">
@@ -34582,7 +34582,7 @@
         <v>-487.0120985700003</v>
       </c>
       <c r="H1315">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1316" spans="1:8">
@@ -34608,7 +34608,7 @@
         <v>-482.3232461900003</v>
       </c>
       <c r="H1316">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1317" spans="1:8">
@@ -34634,7 +34634,7 @@
         <v>-473.0065230200003</v>
       </c>
       <c r="H1317">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1318" spans="1:8">
@@ -34660,7 +34660,7 @@
         <v>-472.5166183200003</v>
       </c>
       <c r="H1318">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1319" spans="1:8">
@@ -34686,7 +34686,7 @@
         <v>-475.4504792700003</v>
       </c>
       <c r="H1319">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1320" spans="1:8">
@@ -34712,7 +34712,7 @@
         <v>-481.4545719100003</v>
       </c>
       <c r="H1320">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1321" spans="1:8">
@@ -34738,7 +34738,7 @@
         <v>-493.8137719100003</v>
       </c>
       <c r="H1321">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1322" spans="1:8">
@@ -34764,7 +34764,7 @@
         <v>-493.8137719100003</v>
       </c>
       <c r="H1322">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1323" spans="1:8">
@@ -34790,7 +34790,7 @@
         <v>-490.8394719100003</v>
       </c>
       <c r="H1323">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1324" spans="1:8">
@@ -34816,7 +34816,7 @@
         <v>-488.6077719100003</v>
       </c>
       <c r="H1324">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1325" spans="1:8">
@@ -34842,7 +34842,7 @@
         <v>-488.0164969500003</v>
       </c>
       <c r="H1325">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1326" spans="1:8">
@@ -34868,7 +34868,7 @@
         <v>-491.5624969500003</v>
       </c>
       <c r="H1326">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1327" spans="1:8">
@@ -34894,7 +34894,7 @@
         <v>-490.8774171400003</v>
       </c>
       <c r="H1327">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1328" spans="1:8">
@@ -34920,7 +34920,7 @@
         <v>-489.9999262600003</v>
       </c>
       <c r="H1328">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1329" spans="1:8">
@@ -34946,7 +34946,7 @@
         <v>-492.5309344600003</v>
       </c>
       <c r="H1329">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1330" spans="1:8">
@@ -34972,7 +34972,7 @@
         <v>-492.1902344600002</v>
       </c>
       <c r="H1330">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1331" spans="1:8">
@@ -34998,7 +34998,7 @@
         <v>-491.4305344600002</v>
       </c>
       <c r="H1331">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1332" spans="1:8">
@@ -35024,7 +35024,7 @@
         <v>-491.3141344600002</v>
       </c>
       <c r="H1332">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1333" spans="1:8">
@@ -35050,7 +35050,7 @@
         <v>-491.3141344600002</v>
       </c>
       <c r="H1333">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1334" spans="1:8">
@@ -35076,7 +35076,7 @@
         <v>-491.3141344600002</v>
       </c>
       <c r="H1334">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1335" spans="1:8">
@@ -35102,7 +35102,7 @@
         <v>-490.8740344600002</v>
       </c>
       <c r="H1335">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1336" spans="1:8">
@@ -35128,7 +35128,7 @@
         <v>-488.4648295500002</v>
       </c>
       <c r="H1336">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1337" spans="1:8">
@@ -35154,7 +35154,7 @@
         <v>-487.4849250600002</v>
       </c>
       <c r="H1337">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1338" spans="1:8">
@@ -35180,7 +35180,7 @@
         <v>-488.4597250600002</v>
       </c>
       <c r="H1338">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1339" spans="1:8">
@@ -35206,7 +35206,7 @@
         <v>-486.3024250600002</v>
       </c>
       <c r="H1339">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1340" spans="1:8">
@@ -35232,7 +35232,7 @@
         <v>-486.6520251100002</v>
       </c>
       <c r="H1340">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1341" spans="1:8">
@@ -35258,7 +35258,7 @@
         <v>-486.4075268500002</v>
       </c>
       <c r="H1341">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1342" spans="1:8">
@@ -35284,7 +35284,7 @@
         <v>-487.8404064000002</v>
       </c>
       <c r="H1342">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1343" spans="1:8">
@@ -35310,7 +35310,7 @@
         <v>-487.3954064000002</v>
       </c>
       <c r="H1343">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1344" spans="1:8">
@@ -35336,7 +35336,7 @@
         <v>-485.0918018200002</v>
       </c>
       <c r="H1344">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1345" spans="1:8">
@@ -35362,7 +35362,7 @@
         <v>-486.8089841400002</v>
       </c>
       <c r="H1345">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1346" spans="1:8">
@@ -35388,7 +35388,7 @@
         <v>-486.1941841400002</v>
       </c>
       <c r="H1346">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1347" spans="1:8">
@@ -35414,7 +35414,7 @@
         <v>-488.9447841400002</v>
       </c>
       <c r="H1347">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-20 BTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 BTC ohlcv.xlsx
@@ -678,7 +678,7 @@
         <v>-107.89231377</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-102.50070486</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-104.98490486</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-104.08042181</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-102.36662181</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-95.41072549999996</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-81.90988414999995</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-76.88764570999996</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-82.26377444999996</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-81.35293513999996</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-83.34813129999996</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-81.82165315999997</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-78.49515315999997</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-77.83185315999997</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-77.14376676999997</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-82.85838037999997</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-103.75517643</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-114.26117643</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-117.30267643</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-122.03937643</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-119.31610114</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-125.74350114</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-123.85040114</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-125.54350114</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-129.04270114</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-125.79165337</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-114.91265337</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-111.52325337</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-116.29975337</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-117.86315337</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-120.74916786</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-117.45436786</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-117.45436786</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-104.42226737</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-101.06046737</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-108.55836737</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-108.18816737</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-100.92936737</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-96.02116736999997</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-97.39556736999997</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-96.46127079999997</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-97.02257966999997</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-97.62977966999998</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-104.04267967</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-83.47317966999996</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-84.56657966999997</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-81.47107966999997</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-89.52367966999996</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-90.13357966999996</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-86.17407966999995</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-88.58927966999995</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-74.46787697999996</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-75.24586798999995</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-75.24586798999995</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-72.03246798999996</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-73.33476798999996</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-65.25246798999996</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-65.25246798999996</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-66.41626798999995</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-66.37246798999995</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-64.88056798999995</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-64.88056798999995</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-64.52295630999994</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-61.20146798999994</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-61.75646798999994</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-62.05936798999994</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-62.27256798999994</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-59.99418979999994</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-61.02617528999994</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-62.30447528999994</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-61.82337528999994</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-64.57897528999995</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-60.01050552999995</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-59.17900552999995</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-58.94780552999995</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-59.02980552999995</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-59.74970552999995</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-58.12910552999995</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-58.49100552999995</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-58.79573403999994</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-58.79573403999994</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-58.79573403999994</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-58.79573403999994</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-58.56473403999994</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-55.82193719999994</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-55.82193719999994</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-60.33173719999994</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-60.60053719999994</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-58.82483719999994</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-58.82483719999994</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-58.82533719999994</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-58.71693719999994</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-58.71693719999994</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-58.72743719999994</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-59.04383719999994</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-55.30053719999994</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-54.96103719999994</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-55.74303719999995</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-57.52923719999995</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-58.04763719999995</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-55.82143719999995</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-55.82143719999995</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-55.04123719999995</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-53.89423719999995</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-58.02073719999995</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-59.42953719999995</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-58.42093719999995</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-49.61103719999995</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-49.61103719999995</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-49.22823719999995</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-49.28423719999994</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-49.66953719999994</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-51.56053719999994</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-51.56053719999994</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-51.59923719999994</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-51.59923719999994</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-51.59923719999994</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-51.59923719999994</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-49.25213719999994</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-48.66033719999994</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-47.34673719999994</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-48.37503719999994</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-47.90443719999995</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-47.57923719999994</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-47.57923719999994</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-47.76983719999995</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-43.73323719999995</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-44.09243719999995</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-44.15123719999995</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-44.24893719999995</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-44.47383719999995</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-44.39563719999995</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-44.60963719999994</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-44.24104017999994</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-44.59544017999994</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-45.47774017999994</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-45.49524017999994</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-45.49524017999994</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-45.49524017999994</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-45.49524017999994</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-43.53954017999994</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-43.60564017999994</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-43.60564017999994</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-43.33764017999994</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-43.33764017999994</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-43.61924017999993</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-43.67424017999993</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-43.33874017999993</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-43.10954017999993</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-43.10954017999993</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-43.16274017999993</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-41.27883719999993</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-40.21913719999993</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-41.60493719999993</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-41.85603719999993</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-41.85603719999993</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-41.85603719999993</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-41.85603719999993</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-37.69503719999993</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-37.99153719999993</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-37.99153719999993</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-37.86273719999993</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-38.23833719999993</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-38.23483719999993</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-38.23483719999993</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-38.45055085999993</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-38.39145085999993</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-38.47125085999993</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-38.47125085999993</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-38.28675085999993</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-38.70845085999993</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-38.70845085999993</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-35.63455085999993</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-39.71145085999993</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-39.88605085999993</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-39.88605085999993</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-40.24675085999993</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-40.29205085999993</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-39.83095085999992</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-39.88585085999993</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-37.60635085999993</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-37.60635085999993</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-37.51025085999993</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-37.44705085999993</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-38.14985085999993</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-36.49425085999993</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-36.51215085999993</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-36.47015085999993</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-36.51865085999992</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-36.48885085999992</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-36.99715085999992</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-36.98405085999992</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-36.99565085999992</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-39.03195085999992</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-39.03195085999992</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-39.03195085999992</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-38.62585085999991</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-38.62585085999991</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-38.62585085999991</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-38.62585085999991</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-38.62585085999991</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-38.62585085999991</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-38.68285085999992</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-38.05684748999992</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-37.69664748999992</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-37.71084748999992</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-37.69224747999992</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-37.78674401999992</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-37.78674401999992</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-38.44094401999993</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-38.44094401999993</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-38.32834401999992</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-38.50564401999993</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-37.93634401999993</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-37.93634401999993</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-37.82544401999993</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-37.82544401999993</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-39.00494401999993</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-39.03814401999993</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-38.82394401999993</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-38.82394401999993</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-39.08134401999992</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-39.19344401999992</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-39.14454401999992</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-39.42644401999992</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-38.81754401999992</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-39.18430192999992</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-35.54870192999992</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-35.54870192999992</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-35.54870192999992</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-35.94980192999992</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-35.63760192999992</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-35.63760192999992</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-38.74720192999992</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-38.74720192999992</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-37.71064246999993</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-37.99944246999993</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-38.58274246999993</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-38.58274246999993</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-38.58274246999993</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-41.63953915999993</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-41.63953915999993</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-43.80153915999993</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-43.80153915999993</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-43.80153915999993</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-43.88003915999992</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-44.83413915999992</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-45.51943915999992</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-44.22463915999992</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-44.44233915999992</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-44.29493915999992</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-44.29493915999992</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-44.29493915999992</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-44.93283915999992</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-42.61743915999993</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-42.61743915999993</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-41.96573915999993</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-42.09373915999993</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-42.11533915999993</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-42.09830827999993</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-42.09830827999993</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-42.09830827999993</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-42.09830827999993</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-42.46480827999993</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-42.46480827999993</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-42.43940827999993</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-42.66810827999993</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-42.64290827999994</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-42.56070827999994</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-42.48340827999994</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-42.48340827999994</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-42.48340827999994</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-42.48340827999994</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-42.48340827999994</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-42.48530827999993</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-41.42833119999993</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-41.15093119999993</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-41.15093119999993</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-41.17353119999993</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-41.14803119999993</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-41.14803119999993</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-42.08513119999993</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-41.28763119999993</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-42.34583119999993</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-41.96913119999993</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-42.77803119999993</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-42.58433119999993</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-42.23663119999993</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-41.88006834999992</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-41.90942339999992</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-42.84952339999992</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-43.18682339999992</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-42.90692339999993</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-42.92952339999992</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-42.20088624999993</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-42.15298624999993</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-42.04958624999993</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-42.04958624999993</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-42.04958624999993</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-42.32028624999992</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-39.41014571999992</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-38.93744571999992</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-37.89694567999992</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-39.80954567999992</v>
       </c>
       <c r="H340">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-39.80954567999992</v>
       </c>
       <c r="H341">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-40.70964567999992</v>
       </c>
       <c r="H342">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-40.63244567999993</v>
       </c>
       <c r="H343">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-40.63244567999993</v>
       </c>
       <c r="H344">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-40.52974567999993</v>
       </c>
       <c r="H345">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-39.95354564999992</v>
       </c>
       <c r="H346">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-42.61574564999992</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-42.40334564999992</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-42.25184564999992</v>
       </c>
       <c r="H349">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-43.88584564999992</v>
       </c>
       <c r="H350">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-43.41284564999992</v>
       </c>
       <c r="H351">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-44.04284564999993</v>
       </c>
       <c r="H352">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-43.89564564999993</v>
       </c>
       <c r="H353">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-44.07934564999993</v>
       </c>
       <c r="H354">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-44.07934564999993</v>
       </c>
       <c r="H355">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-41.25234564999993</v>
       </c>
       <c r="H356">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-42.02454564999993</v>
       </c>
       <c r="H357">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-42.02454564999993</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-41.95354564999993</v>
       </c>
       <c r="H359">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-41.19144564999993</v>
       </c>
       <c r="H360">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-41.13994564999994</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-41.16294564999994</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-41.14594564999994</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-41.14594564999994</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-41.20674564999994</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-40.35024564999994</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-40.03624564999994</v>
       </c>
       <c r="H367">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-40.03624564999994</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-39.17034561999994</v>
       </c>
       <c r="H369">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-39.46444561999994</v>
       </c>
       <c r="H370">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-37.46394564999994</v>
       </c>
       <c r="H371">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-36.77204564999995</v>
       </c>
       <c r="H372">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-36.77204564999995</v>
       </c>
       <c r="H373">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-36.77204564999995</v>
       </c>
       <c r="H374">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-36.77204564999995</v>
       </c>
       <c r="H375">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-38.18984564999995</v>
       </c>
       <c r="H376">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-36.15454564999995</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-36.51954567999994</v>
       </c>
       <c r="H378">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-37.13354567999994</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-36.67764567999994</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-36.68364567999994</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-36.42464567999994</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-36.42464567999994</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-36.42464567999994</v>
       </c>
       <c r="H384">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-36.19334567999994</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-38.48104567999994</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-37.21944567999994</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-37.21944567999994</v>
       </c>
       <c r="H388">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-37.35424567999994</v>
       </c>
       <c r="H389">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-36.33674567999994</v>
       </c>
       <c r="H390">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-36.74524567999994</v>
       </c>
       <c r="H391">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-39.34064567999994</v>
       </c>
       <c r="H392">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-39.34064567999994</v>
       </c>
       <c r="H393">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-37.62093594999994</v>
       </c>
       <c r="H394">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-36.32013594999994</v>
       </c>
       <c r="H395">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-36.32013594999994</v>
       </c>
       <c r="H396">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-34.72283594999994</v>
       </c>
       <c r="H397">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-34.97033594999994</v>
       </c>
       <c r="H398">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-35.49043594999994</v>
       </c>
       <c r="H399">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-35.41723594999994</v>
       </c>
       <c r="H400">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-35.52143594999994</v>
       </c>
       <c r="H401">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-35.57183594999994</v>
       </c>
       <c r="H402">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-35.77623887999994</v>
       </c>
       <c r="H403">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-35.63003887999994</v>
       </c>
       <c r="H404">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-38.46833887999994</v>
       </c>
       <c r="H405">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-37.64813798999994</v>
       </c>
       <c r="H406">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-37.64813798999994</v>
       </c>
       <c r="H407">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-41.49921938999994</v>
       </c>
       <c r="H408">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-41.41691938999994</v>
       </c>
       <c r="H409">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-41.50531938999994</v>
       </c>
       <c r="H410">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-40.70111938999994</v>
       </c>
       <c r="H411">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-39.19301938999994</v>
       </c>
       <c r="H412">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-39.77451938999994</v>
       </c>
       <c r="H413">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-39.77451938999994</v>
       </c>
       <c r="H414">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-39.77451938999994</v>
       </c>
       <c r="H415">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-39.77451938999994</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-40.10641938999994</v>
       </c>
       <c r="H417">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-40.10641938999994</v>
       </c>
       <c r="H418">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-39.21978620999994</v>
       </c>
       <c r="H419">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-39.21978620999994</v>
       </c>
       <c r="H420">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-40.46258620999994</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-40.77268620999994</v>
       </c>
       <c r="H422">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-42.36418620999994</v>
       </c>
       <c r="H423">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-43.27548621999994</v>
       </c>
       <c r="H424">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-43.27548621999994</v>
       </c>
       <c r="H425">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-43.27548621999994</v>
       </c>
       <c r="H426">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-46.50618621999994</v>
       </c>
       <c r="H427">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-43.92908621999994</v>
       </c>
       <c r="H428">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-43.92908621999994</v>
       </c>
       <c r="H429">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-48.78938621999994</v>
       </c>
       <c r="H430">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-49.03098621999994</v>
       </c>
       <c r="H431">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-49.91318621999994</v>
       </c>
       <c r="H432">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-48.71348719999994</v>
       </c>
       <c r="H433">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-47.57598621999994</v>
       </c>
       <c r="H434">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-51.47675269999994</v>
       </c>
       <c r="H435">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-50.47705269999994</v>
       </c>
       <c r="H436">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-44.06351917999994</v>
       </c>
       <c r="H437">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-43.65521917999995</v>
       </c>
       <c r="H438">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-43.30589161999995</v>
       </c>
       <c r="H439">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>-43.51509161999995</v>
       </c>
       <c r="H440">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-40.25428042999995</v>
       </c>
       <c r="H441">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-41.14088042999995</v>
       </c>
       <c r="H442">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>-41.14088042999995</v>
       </c>
       <c r="H443">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>-41.14088042999995</v>
       </c>
       <c r="H444">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>-41.06408042999995</v>
       </c>
       <c r="H445">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-41.06408042999995</v>
       </c>
       <c r="H446">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-40.63148042999995</v>
       </c>
       <c r="H447">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-39.41678042999995</v>
       </c>
       <c r="H448">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-38.61348042999995</v>
       </c>
       <c r="H449">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-38.61348042999995</v>
       </c>
       <c r="H450">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-36.62498042999995</v>
       </c>
       <c r="H451">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-36.62498042999995</v>
       </c>
       <c r="H452">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-36.62498042999995</v>
       </c>
       <c r="H453">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-43.95958042999995</v>
       </c>
       <c r="H454">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-43.95958042999995</v>
       </c>
       <c r="H455">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-46.90737562999995</v>
       </c>
       <c r="H456">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-47.64384533999996</v>
       </c>
       <c r="H457">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-47.64384533999996</v>
       </c>
       <c r="H458">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-48.02084533999996</v>
       </c>
       <c r="H459">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-47.33177367999996</v>
       </c>
       <c r="H460">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-46.46467622999995</v>
       </c>
       <c r="H461">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-47.42757142999995</v>
       </c>
       <c r="H462">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-40.03207515999995</v>
       </c>
       <c r="H463">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-43.84926135999995</v>
       </c>
       <c r="H464">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-43.84926135999995</v>
       </c>
       <c r="H465">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-46.69245823999995</v>
       </c>
       <c r="H466">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-45.62815823999995</v>
       </c>
       <c r="H467">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-49.03275823999995</v>
       </c>
       <c r="H468">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-50.88095823999995</v>
       </c>
       <c r="H469">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-52.94199306999995</v>
       </c>
       <c r="H470">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-54.20485823999994</v>
       </c>
       <c r="H471">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-48.52112340999994</v>
       </c>
       <c r="H472">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-49.69262341999995</v>
       </c>
       <c r="H473">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-52.25572341999995</v>
       </c>
       <c r="H474">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-53.43782341999994</v>
       </c>
       <c r="H475">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-61.74781401999994</v>
       </c>
       <c r="H476">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-60.91590844999995</v>
       </c>
       <c r="H477">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-61.63514391999995</v>
       </c>
       <c r="H478">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-63.58685157999994</v>
       </c>
       <c r="H479">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-64.36305157999995</v>
       </c>
       <c r="H480">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-64.36305157999995</v>
       </c>
       <c r="H481">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-64.36305157999995</v>
       </c>
       <c r="H482">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-60.03145157999995</v>
       </c>
       <c r="H483">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-61.22695157999995</v>
       </c>
       <c r="H484">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-59.50345157999995</v>
       </c>
       <c r="H485">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-58.37205157999995</v>
       </c>
       <c r="H486">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-58.38845157999994</v>
       </c>
       <c r="H487">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-58.38845157999994</v>
       </c>
       <c r="H488">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-58.16505157999995</v>
       </c>
       <c r="H489">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-63.10275157999995</v>
       </c>
       <c r="H490">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>-65.41165157999994</v>
       </c>
       <c r="H491">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>-71.82415157999993</v>
       </c>
       <c r="H492">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>-71.82415157999993</v>
       </c>
       <c r="H493">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>-75.50525157999994</v>
       </c>
       <c r="H494">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-76.28235157999994</v>
       </c>
       <c r="H495">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-69.09705157999994</v>
       </c>
       <c r="H496">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-73.84945157999994</v>
       </c>
       <c r="H497">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-69.83905157999993</v>
       </c>
       <c r="H498">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>-64.16236947999994</v>
       </c>
       <c r="H499">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>-63.69706947999994</v>
       </c>
       <c r="H500">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>-62.72766947999994</v>
       </c>
       <c r="H501">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>-64.35566531999994</v>
       </c>
       <c r="H502">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>-64.00527076999994</v>
       </c>
       <c r="H503">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>-64.76047076999994</v>
       </c>
       <c r="H504">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>-64.58207076999994</v>
       </c>
       <c r="H505">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>-61.14347076999994</v>
       </c>
       <c r="H506">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>-60.73477076999994</v>
       </c>
       <c r="H507">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>-57.71697076999994</v>
       </c>
       <c r="H508">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>-57.71697076999994</v>
       </c>
       <c r="H509">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>-57.71697076999994</v>
       </c>
       <c r="H510">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>-57.71697076999994</v>
       </c>
       <c r="H511">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>-53.48569032999994</v>
       </c>
       <c r="H512">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>-37.67379032999994</v>
       </c>
       <c r="H513">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>-30.03749032999994</v>
       </c>
       <c r="H514">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>-2.949067819999939</v>
       </c>
       <c r="H515">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>-12.03434346999994</v>
       </c>
       <c r="H516">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>-5.408321499999939</v>
       </c>
       <c r="H517">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>-7.004721499999939</v>
       </c>
       <c r="H518">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>-11.83232149999994</v>
       </c>
       <c r="H519">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>-14.57342149999994</v>
       </c>
       <c r="H520">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>-16.51732149999994</v>
       </c>
       <c r="H521">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>-14.21541066999994</v>
       </c>
       <c r="H522">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>-15.00033036999994</v>
       </c>
       <c r="H523">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>-16.33617962999994</v>
       </c>
       <c r="H524">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>-13.93627962999994</v>
       </c>
       <c r="H525">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>-13.02454858999994</v>
       </c>
       <c r="H526">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>-12.30514858999994</v>
       </c>
       <c r="H527">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>-9.236248589999935</v>
       </c>
       <c r="H528">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>-11.89444858999994</v>
       </c>
       <c r="H529">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>-17.18451221999993</v>
       </c>
       <c r="H530">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>-20.20591221999993</v>
       </c>
       <c r="H531">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>-21.35951221999994</v>
       </c>
       <c r="H532">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>-20.41931221999993</v>
       </c>
       <c r="H533">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>-22.85731221999993</v>
       </c>
       <c r="H534">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>-22.39591221999993</v>
       </c>
       <c r="H535">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>-18.28891221999993</v>
       </c>
       <c r="H536">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>-24.42981222999993</v>
       </c>
       <c r="H537">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>-20.57141222999993</v>
       </c>
       <c r="H538">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>8.602824130000066</v>
       </c>
       <c r="H539">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>95.15643733000007</v>
       </c>
       <c r="H540">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>115.2581373300001</v>
       </c>
       <c r="H541">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>89.57366605000007</v>
       </c>
       <c r="H542">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>77.27018687000007</v>
       </c>
       <c r="H543">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>90.96578687000007</v>
       </c>
       <c r="H544">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>99.47698686000007</v>
       </c>
       <c r="H545">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>138.5387306000001</v>
       </c>
       <c r="H546">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>153.1266485200001</v>
       </c>
       <c r="H547">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>188.1465306100001</v>
       </c>
       <c r="H548">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>188.1465306100001</v>
       </c>
       <c r="H549">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>218.2809954100001</v>
       </c>
       <c r="H550">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>197.9522397000001</v>
       </c>
       <c r="H551">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>207.6430397000001</v>
       </c>
       <c r="H552">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>195.0444397000001</v>
       </c>
       <c r="H553">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>308.01208871</v>
       </c>
       <c r="H568">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>334.83987675</v>
       </c>
       <c r="H569">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>350.41127468</v>
       </c>
       <c r="H570">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>369.70867624</v>
       </c>
       <c r="H571">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>386.9356382400001</v>
       </c>
       <c r="H572">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>371.9596382400001</v>
       </c>
       <c r="H573">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>358.0254558400001</v>
       </c>
       <c r="H574">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>374.4372930300001</v>
       </c>
       <c r="H575">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>386.6690675100001</v>
       </c>
       <c r="H576">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>408.7532519500001</v>
       </c>
       <c r="H577">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>417.8642871700001</v>
       </c>
       <c r="H578">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>428.4196953700001</v>
       </c>
       <c r="H579">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>399.7229036800001</v>
       </c>
       <c r="H580">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>403.6121776200001</v>
       </c>
       <c r="H581">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>399.0465776200001</v>
       </c>
       <c r="H582">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>396.7730776200001</v>
       </c>
       <c r="H583">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>407.7626898800001</v>
       </c>
       <c r="H584">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>396.5021898800001</v>
       </c>
       <c r="H585">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>415.3298353300001</v>
       </c>
       <c r="H586">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>407.2403198500001</v>
       </c>
       <c r="H587">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>412.3277474800001</v>
       </c>
       <c r="H588">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>405.3295475200001</v>
       </c>
       <c r="H589">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>393.1350208300001</v>
       </c>
       <c r="H590">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>373.6011994300001</v>
       </c>
       <c r="H591">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>358.0832816100001</v>
       </c>
       <c r="H592">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>343.9364816100001</v>
       </c>
       <c r="H593">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>331.9053816100001</v>
       </c>
       <c r="H594">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>348.1145816100001</v>
       </c>
       <c r="H595">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>339.4936816100001</v>
       </c>
       <c r="H596">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>349.2704816100001</v>
       </c>
       <c r="H597">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>353.1612825800001</v>
       </c>
       <c r="H598">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>362.1581825800001</v>
       </c>
       <c r="H599">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>370.5569611800001</v>
       </c>
       <c r="H600">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>365.2886611800001</v>
       </c>
       <c r="H601">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>361.1983612200001</v>
       </c>
       <c r="H602">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>364.2896612200001</v>
       </c>
       <c r="H603">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>363.2408612200001</v>
       </c>
       <c r="H604">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>367.9933612200001</v>
       </c>
       <c r="H605">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>371.15606122</v>
       </c>
       <c r="H606">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>365.40266122</v>
       </c>
       <c r="H607">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>370.9010550100001</v>
       </c>
       <c r="H608">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>380.21155501</v>
       </c>
       <c r="H609">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>383.95174093</v>
       </c>
       <c r="H610">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>394.33466089</v>
       </c>
       <c r="H611">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>399.85827666</v>
       </c>
       <c r="H612">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>411.60751086</v>
       </c>
       <c r="H613">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>399.78433991</v>
       </c>
       <c r="H614">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>403.88805247</v>
       </c>
       <c r="H615">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>408.88908024</v>
       </c>
       <c r="H616">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>425.94181245</v>
       </c>
       <c r="H617">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>413.90328285</v>
       </c>
       <c r="H618">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>420.09514693</v>
       </c>
       <c r="H619">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>416.90609744</v>
       </c>
       <c r="H620">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>408.28729746</v>
       </c>
       <c r="H621">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>412.96589742</v>
       </c>
       <c r="H622">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>404.05339738</v>
       </c>
       <c r="H623">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>398.98631835</v>
       </c>
       <c r="H624">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>402.35291835</v>
       </c>
       <c r="H625">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>396.36911835</v>
       </c>
       <c r="H626">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>391.97756</v>
       </c>
       <c r="H627">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>391.97756</v>
       </c>
       <c r="H628">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>388.03686</v>
       </c>
       <c r="H629">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>385.06496</v>
       </c>
       <c r="H630">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>358.86833777</v>
       </c>
       <c r="H643">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>372.97529847</v>
       </c>
       <c r="H645">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>368.9849984700001</v>
       </c>
       <c r="H646">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>366.7641984700001</v>
       </c>
       <c r="H647">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>374.0743984700001</v>
       </c>
       <c r="H648">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>372.1666984400001</v>
       </c>
       <c r="H649">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>379.2216984400001</v>
       </c>
       <c r="H650">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>380.4110020700001</v>
       </c>
       <c r="H651">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>376.9487021100001</v>
       </c>
       <c r="H652">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>378.56951724</v>
       </c>
       <c r="H653">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>377.87423246</v>
       </c>
       <c r="H654">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>372.04223246</v>
       </c>
       <c r="H655">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -32554,7 +32554,7 @@
         <v>-513.6313727200003</v>
       </c>
       <c r="H1237">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1238" spans="1:8">
@@ -33594,7 +33594,7 @@
         <v>-500.1077087800004</v>
       </c>
       <c r="H1277">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1278" spans="1:8">
@@ -33620,7 +33620,7 @@
         <v>-493.4594087800004</v>
       </c>
       <c r="H1278">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1279" spans="1:8">
@@ -33646,7 +33646,7 @@
         <v>-493.4594087800004</v>
       </c>
       <c r="H1279">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1280" spans="1:8">
@@ -34322,7 +34322,7 @@
         <v>-486.0131296100002</v>
       </c>
       <c r="H1305">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1306" spans="1:8">
@@ -34348,7 +34348,7 @@
         <v>-494.1404986400003</v>
       </c>
       <c r="H1306">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1307" spans="1:8">
@@ -34374,7 +34374,7 @@
         <v>-493.3401986400003</v>
       </c>
       <c r="H1307">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1308" spans="1:8">
@@ -34400,7 +34400,7 @@
         <v>-493.3401986400003</v>
       </c>
       <c r="H1308">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1309" spans="1:8">
@@ -34426,7 +34426,7 @@
         <v>-485.1717592900003</v>
       </c>
       <c r="H1309">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1310" spans="1:8">
@@ -34452,7 +34452,7 @@
         <v>-485.8570651400003</v>
       </c>
       <c r="H1310">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1311" spans="1:8">
@@ -34478,7 +34478,7 @@
         <v>-486.9207651400003</v>
       </c>
       <c r="H1311">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1312" spans="1:8">
@@ -34504,7 +34504,7 @@
         <v>-486.9207651400003</v>
       </c>
       <c r="H1312">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1313" spans="1:8">
@@ -34530,7 +34530,7 @@
         <v>-486.9207651400003</v>
       </c>
       <c r="H1313">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1314" spans="1:8">
@@ -34556,7 +34556,7 @@
         <v>-485.1809985700003</v>
       </c>
       <c r="H1314">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1315" spans="1:8">
@@ -34582,7 +34582,7 @@
         <v>-487.0120985700003</v>
       </c>
       <c r="H1315">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1316" spans="1:8">
@@ -34608,7 +34608,7 @@
         <v>-482.3232461900003</v>
       </c>
       <c r="H1316">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1317" spans="1:8">
@@ -34634,7 +34634,7 @@
         <v>-473.0065230200003</v>
       </c>
       <c r="H1317">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1318" spans="1:8">
@@ -34660,7 +34660,7 @@
         <v>-472.5166183200003</v>
       </c>
       <c r="H1318">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1319" spans="1:8">
@@ -34686,7 +34686,7 @@
         <v>-475.4504792700003</v>
       </c>
       <c r="H1319">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1320" spans="1:8">
@@ -34712,7 +34712,7 @@
         <v>-481.4545719100003</v>
       </c>
       <c r="H1320">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1321" spans="1:8">
@@ -34738,7 +34738,7 @@
         <v>-493.8137719100003</v>
       </c>
       <c r="H1321">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1322" spans="1:8">
@@ -34764,7 +34764,7 @@
         <v>-493.8137719100003</v>
       </c>
       <c r="H1322">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1323" spans="1:8">
@@ -34790,7 +34790,7 @@
         <v>-490.8394719100003</v>
       </c>
       <c r="H1323">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1324" spans="1:8">
@@ -34816,7 +34816,7 @@
         <v>-488.6077719100003</v>
       </c>
       <c r="H1324">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1325" spans="1:8">
@@ -34842,7 +34842,7 @@
         <v>-488.0164969500003</v>
       </c>
       <c r="H1325">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1326" spans="1:8">
@@ -34868,7 +34868,7 @@
         <v>-491.5624969500003</v>
       </c>
       <c r="H1326">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1327" spans="1:8">
@@ -34894,7 +34894,7 @@
         <v>-490.8774171400003</v>
       </c>
       <c r="H1327">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1328" spans="1:8">
@@ -34920,7 +34920,7 @@
         <v>-489.9999262600003</v>
       </c>
       <c r="H1328">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1329" spans="1:8">
@@ -34946,7 +34946,7 @@
         <v>-492.5309344600003</v>
       </c>
       <c r="H1329">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1330" spans="1:8">
@@ -34972,7 +34972,7 @@
         <v>-492.1902344600002</v>
       </c>
       <c r="H1330">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1331" spans="1:8">
@@ -34998,7 +34998,7 @@
         <v>-491.4305344600002</v>
       </c>
       <c r="H1331">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1332" spans="1:8">
@@ -35024,7 +35024,7 @@
         <v>-491.3141344600002</v>
       </c>
       <c r="H1332">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1333" spans="1:8">
@@ -35050,7 +35050,7 @@
         <v>-491.3141344600002</v>
       </c>
       <c r="H1333">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1334" spans="1:8">
@@ -35076,7 +35076,7 @@
         <v>-491.3141344600002</v>
       </c>
       <c r="H1334">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1335" spans="1:8">
@@ -35102,7 +35102,7 @@
         <v>-490.8740344600002</v>
       </c>
       <c r="H1335">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1336" spans="1:8">
@@ -35128,7 +35128,7 @@
         <v>-488.4648295500002</v>
       </c>
       <c r="H1336">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1337" spans="1:8">
@@ -35154,7 +35154,7 @@
         <v>-487.4849250600002</v>
       </c>
       <c r="H1337">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1338" spans="1:8">
@@ -35180,7 +35180,7 @@
         <v>-488.4597250600002</v>
       </c>
       <c r="H1338">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1339" spans="1:8">
@@ -35206,7 +35206,7 @@
         <v>-486.3024250600002</v>
       </c>
       <c r="H1339">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1340" spans="1:8">
@@ -35232,7 +35232,7 @@
         <v>-486.6520251100002</v>
       </c>
       <c r="H1340">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1341" spans="1:8">
@@ -35258,7 +35258,7 @@
         <v>-486.4075268500002</v>
       </c>
       <c r="H1341">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1342" spans="1:8">
@@ -35284,7 +35284,7 @@
         <v>-487.8404064000002</v>
       </c>
       <c r="H1342">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1343" spans="1:8">
@@ -35310,7 +35310,7 @@
         <v>-487.3954064000002</v>
       </c>
       <c r="H1343">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1344" spans="1:8">
@@ -35336,7 +35336,7 @@
         <v>-485.0918018200002</v>
       </c>
       <c r="H1344">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1345" spans="1:8">
@@ -35362,7 +35362,7 @@
         <v>-486.8089841400002</v>
       </c>
       <c r="H1345">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1346" spans="1:8">
@@ -35388,7 +35388,7 @@
         <v>-486.1941841400002</v>
       </c>
       <c r="H1346">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1347" spans="1:8">
@@ -35414,7 +35414,7 @@
         <v>-488.9447841400002</v>
       </c>
       <c r="H1347">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
